--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B102FD1-D343-4966-84C3-407EC3F6E237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5988A731-85AE-4665-849D-83050E47690D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -952,7 +952,9 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12">
+        <v>29.5</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1723,7 +1725,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4898,7 +4900,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5098,7 +5100,9 @@
         <v>45964</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12">
+        <v>772</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
@@ -5866,7 +5870,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9044,8 +9048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9269,7 +9273,9 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>94.75</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -10017,7 +10023,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>0</v>
+        <v>94.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5988A731-85AE-4665-849D-83050E47690D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B81669-C177-4667-90FF-1316CEBBAEF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -976,7 +976,9 @@
         <v>45965</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15">
+        <v>233.75</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
@@ -1721,7 +1723,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>0</v>
+        <v>233.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -5100,7 +5102,7 @@
         <v>45964</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <v>772</v>
       </c>
       <c r="E10" s="12"/>
@@ -5125,7 +5127,9 @@
         <v>45965</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15">
+        <v>11</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
@@ -5870,7 +5874,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9048,7 +9052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -9250,7 +9254,9 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12">
+        <v>94.75</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -9274,7 +9280,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="15"/>
       <c r="E11" s="12">
-        <v>94.75</v>
+        <v>100.5</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
@@ -10023,7 +10029,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>94.75</v>
+        <v>195.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B81669-C177-4667-90FF-1316CEBBAEF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0AD4E1-4CE5-4890-BD28-32B0C11F67AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -750,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -4902,7 +4902,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5127,10 +5127,10 @@
         <v>45965</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="15">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="12">
+        <v>615</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -5874,11 +5874,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9052,7 +9052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0AD4E1-4CE5-4890-BD28-32B0C11F67AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F624B75E-4CF4-4585-AB8A-E7F2B49E79D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1001,7 +1001,9 @@
         <v>45966</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13">
+        <v>674</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
@@ -1024,7 +1026,7 @@
         <v>45967</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="1"/>
@@ -1047,7 +1049,7 @@
         <v>45968</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="12"/>
       <c r="F14" s="35"/>
       <c r="G14" s="1"/>
@@ -1723,7 +1725,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>233.75</v>
+        <v>907.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4902,7 +4904,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5153,7 +5155,9 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12">
+        <v>9</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -5878,7 +5882,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9052,8 +9056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9304,7 +9308,9 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12">
+        <v>120.75</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -10029,7 +10035,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>195.25</v>
+        <v>316</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F624B75E-4CF4-4585-AB8A-E7F2B49E79D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47184E9B-6420-4F56-9788-5ECB7EA5A22A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -751,7 +751,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1026,7 +1026,9 @@
         <v>45967</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="13">
+        <v>129.25</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="1"/>
@@ -1725,7 +1727,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>907.75</v>
+        <v>1037</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4904,7 +4906,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5129,7 +5131,7 @@
         <v>45965</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="12">
         <v>615</v>
       </c>
@@ -5154,7 +5156,7 @@
         <v>45966</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="12">
         <v>9</v>
       </c>
@@ -5179,7 +5181,9 @@
         <v>45967</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13">
+        <v>624.75</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="1"/>
@@ -5202,7 +5206,7 @@
         <v>45968</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="12"/>
       <c r="F14" s="35"/>
       <c r="G14" s="1"/>
@@ -5225,7 +5229,7 @@
         <v>45969</v>
       </c>
       <c r="C15" s="27"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="12"/>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
@@ -5878,7 +5882,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>772</v>
+        <v>1396.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9057,7 +9061,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9257,7 +9261,7 @@
         <v>45964</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="12">
         <v>94.75</v>
       </c>
@@ -9307,7 +9311,7 @@
         <v>45966</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="12">
         <v>120.75</v>
       </c>
@@ -9332,7 +9336,9 @@
         <v>45967</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13">
+        <v>104</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="1"/>
@@ -9355,7 +9361,7 @@
         <v>45968</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="12"/>
       <c r="F14" s="35"/>
       <c r="G14" s="1"/>
@@ -10031,7 +10037,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47184E9B-6420-4F56-9788-5ECB7EA5A22A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C92EE5-73C0-408A-AF06-11DFD69B48A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -9061,7 +9061,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9313,7 +9313,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
       <c r="E12" s="12">
-        <v>120.75</v>
+        <v>90.25</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>316</v>
+        <v>285.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C92EE5-73C0-408A-AF06-11DFD69B48A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFFD7A5-768F-47DD-8DB5-5304FBD4F3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -126,6 +126,9 @@
       </rPr>
       <t xml:space="preserve"> MOCOY, JULIET</t>
     </r>
+  </si>
+  <si>
+    <t>NO TRIP</t>
   </si>
 </sst>
 </file>
@@ -751,7 +754,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1052,7 +1055,9 @@
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="12">
+        <v>109.5</v>
+      </c>
       <c r="F14" s="35"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1731,7 +1736,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>29.5</v>
+        <v>139</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4905,8 +4910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5206,8 +5211,10 @@
         <v>45968</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="38"/>
       <c r="F14" s="35"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -9045,11 +9052,12 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C30:F30"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9060,8 +9068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9361,7 +9369,9 @@
         <v>45968</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13">
+        <v>81.75</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="35"/>
       <c r="G14" s="1"/>
@@ -10037,7 +10047,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>104</v>
+        <v>185.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFFD7A5-768F-47DD-8DB5-5304FBD4F3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2C339A-4DE6-496A-BC73-ACE1F8249EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1079,7 +1079,9 @@
         <v>45969</v>
       </c>
       <c r="C15" s="27"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="15">
+        <v>14</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
@@ -1732,7 +1734,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1037</v>
+        <v>1051</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4910,8 +4912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5237,7 +5239,9 @@
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12">
+        <v>47.5</v>
+      </c>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -5893,7 +5897,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>624</v>
+        <v>671.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9069,7 +9073,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9395,7 +9399,9 @@
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12">
+        <v>621</v>
+      </c>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -10051,7 +10057,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>285.5</v>
+        <v>906.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2C339A-4DE6-496A-BC73-ACE1F8249EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E736E2-4EC5-462C-88A9-0E88D1E6483D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1126,11 +1126,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="31">
-        <v>45964</v>
+        <v>45971</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="12">
+        <v>20.25</v>
+      </c>
       <c r="F17" s="11"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1149,7 +1151,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="31">
-        <v>45965</v>
+        <v>45972</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="15"/>
@@ -1172,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="31">
-        <v>45966</v>
+        <v>45973</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1195,7 +1197,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="31">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -1218,7 +1220,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="31">
-        <v>45968</v>
+        <v>45975</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1241,7 +1243,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="31">
-        <v>45969</v>
+        <v>45976</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="15"/>
@@ -1289,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="31">
-        <v>45964</v>
+        <v>45978</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -1312,7 +1314,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="31">
-        <v>45965</v>
+        <v>45979</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="15"/>
@@ -1335,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="31">
-        <v>45966</v>
+        <v>45980</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -1358,7 +1360,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="31">
-        <v>45967</v>
+        <v>45981</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -1381,7 +1383,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="31">
-        <v>45968</v>
+        <v>45982</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -1404,7 +1406,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="31">
-        <v>45969</v>
+        <v>45983</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="15"/>
@@ -1452,7 +1454,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="31">
-        <v>45964</v>
+        <v>45985</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -1475,7 +1477,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="31">
-        <v>45965</v>
+        <v>45986</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="15"/>
@@ -1498,7 +1500,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="31">
-        <v>45966</v>
+        <v>45987</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -1521,7 +1523,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="31">
-        <v>45967</v>
+        <v>45988</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -1544,7 +1546,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="31">
-        <v>45968</v>
+        <v>45989</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -1567,7 +1569,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="31">
-        <v>45969</v>
+        <v>45990</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="15"/>
@@ -1615,7 +1617,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="31">
-        <v>45964</v>
+        <v>45991</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="15"/>
@@ -1637,9 +1639,7 @@
       <c r="A39" s="11">
         <v>30</v>
       </c>
-      <c r="B39" s="31">
-        <v>45965</v>
-      </c>
+      <c r="B39" s="31"/>
       <c r="C39" s="12"/>
       <c r="D39" s="15"/>
       <c r="E39" s="12"/>
@@ -1660,9 +1660,7 @@
       <c r="A40" s="11">
         <v>29</v>
       </c>
-      <c r="B40" s="31">
-        <v>45966</v>
-      </c>
+      <c r="B40" s="31"/>
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
       <c r="E40" s="12"/>
@@ -1683,9 +1681,7 @@
       <c r="A41" s="11">
         <v>30</v>
       </c>
-      <c r="B41" s="31">
-        <v>45967</v>
-      </c>
+      <c r="B41" s="31"/>
       <c r="C41" s="12"/>
       <c r="D41" s="15"/>
       <c r="E41" s="12"/>
@@ -1738,7 +1734,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>139</v>
+        <v>159.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4913,7 +4909,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5285,10 +5281,12 @@
         <v>8</v>
       </c>
       <c r="B17" s="31">
-        <v>45964</v>
+        <v>45971</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="13">
+        <v>1165</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
       <c r="G17" s="1"/>
@@ -5308,7 +5306,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="31">
-        <v>45965</v>
+        <v>45972</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="15"/>
@@ -5331,7 +5329,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="31">
-        <v>45966</v>
+        <v>45973</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -5354,7 +5352,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="31">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -5377,7 +5375,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="31">
-        <v>45968</v>
+        <v>45975</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -5400,7 +5398,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="31">
-        <v>45969</v>
+        <v>45976</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="15"/>
@@ -5448,7 +5446,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="31">
-        <v>45964</v>
+        <v>45978</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -5471,7 +5469,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="31">
-        <v>45965</v>
+        <v>45979</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="15"/>
@@ -5494,7 +5492,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="31">
-        <v>45966</v>
+        <v>45980</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -5517,7 +5515,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="31">
-        <v>45967</v>
+        <v>45981</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -5540,7 +5538,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="31">
-        <v>45968</v>
+        <v>45982</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -5563,7 +5561,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="31">
-        <v>45969</v>
+        <v>45983</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="15"/>
@@ -5611,7 +5609,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="31">
-        <v>45964</v>
+        <v>45985</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -5634,7 +5632,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="31">
-        <v>45965</v>
+        <v>45986</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="15"/>
@@ -5657,7 +5655,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="31">
-        <v>45966</v>
+        <v>45987</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -5680,7 +5678,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="31">
-        <v>45967</v>
+        <v>45988</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -5703,7 +5701,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="31">
-        <v>45968</v>
+        <v>45989</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -5726,7 +5724,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="31">
-        <v>45969</v>
+        <v>45990</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="15"/>
@@ -5774,7 +5772,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="31">
-        <v>45964</v>
+        <v>45991</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="15"/>
@@ -5796,9 +5794,7 @@
       <c r="A39" s="11">
         <v>30</v>
       </c>
-      <c r="B39" s="31">
-        <v>45965</v>
-      </c>
+      <c r="B39" s="31"/>
       <c r="C39" s="12"/>
       <c r="D39" s="15"/>
       <c r="E39" s="12"/>
@@ -5819,9 +5815,7 @@
       <c r="A40" s="11">
         <v>29</v>
       </c>
-      <c r="B40" s="31">
-        <v>45966</v>
-      </c>
+      <c r="B40" s="31"/>
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
       <c r="E40" s="12"/>
@@ -5842,9 +5836,7 @@
       <c r="A41" s="11">
         <v>30</v>
       </c>
-      <c r="B41" s="31">
-        <v>45967</v>
-      </c>
+      <c r="B41" s="31"/>
       <c r="C41" s="12"/>
       <c r="D41" s="15"/>
       <c r="E41" s="12"/>
@@ -5893,7 +5885,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1396.75</v>
+        <v>2561.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9072,8 +9064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9445,10 +9437,12 @@
         <v>8</v>
       </c>
       <c r="B17" s="31">
-        <v>45964</v>
+        <v>45971</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="13">
+        <v>218</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
       <c r="G17" s="1"/>
@@ -9468,7 +9462,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="31">
-        <v>45965</v>
+        <v>45972</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="15"/>
@@ -9491,7 +9485,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="31">
-        <v>45966</v>
+        <v>45973</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -9514,7 +9508,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="31">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -9537,7 +9531,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="31">
-        <v>45968</v>
+        <v>45975</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -9560,7 +9554,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="31">
-        <v>45969</v>
+        <v>45976</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="15"/>
@@ -9608,7 +9602,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="31">
-        <v>45964</v>
+        <v>45978</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -9631,7 +9625,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="31">
-        <v>45965</v>
+        <v>45979</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="15"/>
@@ -9654,7 +9648,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="31">
-        <v>45966</v>
+        <v>45980</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -9677,7 +9671,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="31">
-        <v>45967</v>
+        <v>45981</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -9700,7 +9694,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="31">
-        <v>45968</v>
+        <v>45982</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -9723,7 +9717,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="31">
-        <v>45969</v>
+        <v>45983</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="15"/>
@@ -9771,7 +9765,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="31">
-        <v>45964</v>
+        <v>45985</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -9794,7 +9788,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="31">
-        <v>45965</v>
+        <v>45986</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="15"/>
@@ -9817,7 +9811,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="31">
-        <v>45966</v>
+        <v>45987</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -9840,7 +9834,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="31">
-        <v>45967</v>
+        <v>45988</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -9863,7 +9857,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="31">
-        <v>45968</v>
+        <v>45989</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -9886,7 +9880,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="31">
-        <v>45969</v>
+        <v>45990</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="15"/>
@@ -9934,7 +9928,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="31">
-        <v>45964</v>
+        <v>45991</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="15"/>
@@ -9956,9 +9950,7 @@
       <c r="A39" s="11">
         <v>30</v>
       </c>
-      <c r="B39" s="31">
-        <v>45965</v>
-      </c>
+      <c r="B39" s="31"/>
       <c r="C39" s="12"/>
       <c r="D39" s="15"/>
       <c r="E39" s="12"/>
@@ -9979,9 +9971,7 @@
       <c r="A40" s="11">
         <v>29</v>
       </c>
-      <c r="B40" s="31">
-        <v>45966</v>
-      </c>
+      <c r="B40" s="31"/>
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
       <c r="E40" s="12"/>
@@ -10002,9 +9992,7 @@
       <c r="A41" s="11">
         <v>30</v>
       </c>
-      <c r="B41" s="31">
-        <v>45967</v>
-      </c>
+      <c r="B41" s="31"/>
       <c r="C41" s="12"/>
       <c r="D41" s="15"/>
       <c r="E41" s="12"/>
@@ -10053,7 +10041,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>185.75</v>
+        <v>403.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E736E2-4EC5-462C-88A9-0E88D1E6483D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156D2ECC-80F6-4493-A875-F41806D72D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1154,7 +1154,9 @@
         <v>45972</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>939.5</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
@@ -1730,7 +1732,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1051</v>
+        <v>1990.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4909,7 +4911,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5310,7 +5312,9 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>1333.75</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -5889,7 +5893,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>671.5</v>
+        <v>2005.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9065,7 +9069,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9465,7 +9469,9 @@
         <v>45972</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>174</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
@@ -10041,7 +10047,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>403.75</v>
+        <v>577.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156D2ECC-80F6-4493-A875-F41806D72D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16291B6-C6AB-45E7-B9AB-BC66D8F06365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1180,7 +1180,9 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12">
+        <v>949</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1736,7 +1738,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>159.25</v>
+        <v>1108.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4911,7 +4913,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5337,7 +5339,9 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12">
+        <v>0.5</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -5893,7 +5897,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2005.25</v>
+        <v>2005.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9069,7 +9073,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9495,7 +9499,9 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12">
+        <v>47.5</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -10051,7 +10057,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>906.5</v>
+        <v>954</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16291B6-C6AB-45E7-B9AB-BC66D8F06365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B2B203-272B-470D-8015-2D08E2DA405F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -754,7 +754,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1204,8 +1204,10 @@
         <v>45974</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="38"/>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4897,11 +4899,12 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C30:F30"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4913,7 +4916,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5364,7 +5367,9 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12">
+        <v>31.5</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5897,7 +5902,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2005.75</v>
+        <v>2037.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9073,7 +9078,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9524,7 +9529,9 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="12">
+        <v>215.25</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -10057,7 +10064,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>954</v>
+        <v>1169.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B2B203-272B-470D-8015-2D08E2DA405F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFD111A-7CD3-4206-BDBA-6538736E7C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1230,7 +1230,9 @@
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12">
+        <v>319</v>
+      </c>
       <c r="F21" s="35"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1740,7 +1742,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1108.25</v>
+        <v>1427.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4916,7 +4918,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5392,7 +5394,9 @@
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12">
+        <v>19.5</v>
+      </c>
       <c r="F21" s="35"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5902,7 +5906,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2037.25</v>
+        <v>2056.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9077,8 +9081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9553,7 +9557,9 @@
         <v>45975</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="13">
+        <v>540.5</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="35"/>
       <c r="G21" s="1"/>
@@ -10060,7 +10066,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>577.75</v>
+        <v>1118.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFD111A-7CD3-4206-BDBA-6538736E7C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9164B06F-7C66-4278-B881-43EEB564F650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -754,7 +754,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1255,7 +1255,9 @@
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12">
+        <v>6.75</v>
+      </c>
       <c r="F22" s="34"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1742,7 +1744,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1427.25</v>
+        <v>1434</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4918,7 +4920,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5418,8 +5420,10 @@
         <v>45976</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="38"/>
       <c r="F22" s="34"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -9065,12 +9069,13 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9081,8 +9086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9582,7 +9587,9 @@
         <v>45976</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="15">
+        <v>4343</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="34"/>
       <c r="G22" s="1"/>
@@ -10066,7 +10073,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1118.25</v>
+        <v>5461.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9164B06F-7C66-4278-B881-43EEB564F650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446A02EA-F1AF-4B41-92BB-6BF5101BE6BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446A02EA-F1AF-4B41-92BB-6BF5101BE6BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3609CFF8-8D84-49E7-B2FA-876A26974015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1304,7 +1304,9 @@
         <v>45978</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13">
+        <v>1493</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="11"/>
       <c r="G24" s="1"/>
@@ -1740,7 +1742,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1990.5</v>
+        <v>3483.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4920,7 +4922,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5471,7 +5473,9 @@
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="12">
+        <v>291.25</v>
+      </c>
       <c r="F24" s="11"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -5910,7 +5914,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2056.75</v>
+        <v>2348</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9087,7 +9091,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9638,7 +9642,9 @@
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="12">
+        <v>3793</v>
+      </c>
       <c r="F24" s="11"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -10077,7 +10083,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1169.25</v>
+        <v>4962.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3609CFF8-8D84-49E7-B2FA-876A26974015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B0B06C-B3AF-4A82-82B3-61CD466F00A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1329,7 +1329,9 @@
         <v>45979</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="15">
+        <v>61.25</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
@@ -1353,7 +1355,9 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="12">
+        <v>283</v>
+      </c>
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1742,11 +1746,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>3483.5</v>
+        <v>3544.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1434</v>
+        <v>1717</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4922,7 +4926,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5497,7 +5501,9 @@
         <v>45979</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="15">
+        <v>16.5</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
@@ -5521,7 +5527,9 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="12">
+        <v>93.5</v>
+      </c>
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -5910,11 +5918,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>2561.75</v>
+        <v>2578.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2348</v>
+        <v>2441.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9091,7 +9099,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9666,7 +9674,9 @@
         <v>45979</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="15">
+        <v>495.5</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
@@ -9689,7 +9699,9 @@
         <v>45980</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="13">
+        <v>216.75</v>
+      </c>
       <c r="E26" s="12"/>
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
@@ -10079,7 +10091,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>5461.25</v>
+        <v>6173.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B0B06C-B3AF-4A82-82B3-61CD466F00A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BE27EF-DDA5-46DA-BB01-ACB2205F13DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BE27EF-DDA5-46DA-BB01-ACB2205F13DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FB81BF-5080-4CED-95BE-228A214C7295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -754,7 +754,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1380,7 +1380,9 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12">
+        <v>10</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1750,7 +1752,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1717</v>
+        <v>1727</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4926,7 +4928,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5551,8 +5553,10 @@
         <v>45981</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="D27" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="38"/>
       <c r="F27" s="11"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -9081,13 +9085,14 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9099,7 +9104,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9725,7 +9730,9 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12">
+        <v>448.25</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -10095,7 +10102,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4962.25</v>
+        <v>5410.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FB81BF-5080-4CED-95BE-228A214C7295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F6E595-C2D1-47CC-849C-F283B4C33BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1405,7 +1405,9 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="12">
+        <v>1.25</v>
+      </c>
       <c r="F28" s="35"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1752,7 +1754,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1727</v>
+        <v>1728.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4928,7 +4930,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5579,7 +5581,9 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="12">
+        <v>7.75</v>
+      </c>
       <c r="F28" s="35"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -5926,7 +5930,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2441.5</v>
+        <v>2449.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9104,7 +9108,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9754,7 +9758,9 @@
         <v>45982</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13">
+        <v>240.75</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="35"/>
       <c r="G28" s="1"/>
@@ -10098,7 +10104,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>6173.5</v>
+        <v>6414.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F6E595-C2D1-47CC-849C-F283B4C33BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19C239D-27DD-4626-B7C7-2A73EBBADECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1429,7 +1429,9 @@
         <v>45983</v>
       </c>
       <c r="C29" s="27"/>
-      <c r="D29" s="15"/>
+      <c r="D29" s="15">
+        <v>186.5</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="34"/>
       <c r="G29" s="1"/>
@@ -1750,7 +1752,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>3544.75</v>
+        <v>3731.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4930,7 +4932,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5606,7 +5608,9 @@
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="12">
+        <v>64.25</v>
+      </c>
       <c r="F29" s="34"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -5930,7 +5934,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2449.25</v>
+        <v>2513.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9108,7 +9112,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9783,7 +9787,9 @@
         <v>45983</v>
       </c>
       <c r="C29" s="27"/>
-      <c r="D29" s="15"/>
+      <c r="D29" s="15">
+        <v>1750.5</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="34"/>
       <c r="G29" s="1"/>
@@ -10104,7 +10110,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>6414.25</v>
+        <v>8164.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19C239D-27DD-4626-B7C7-2A73EBBADECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFAB1F-E2B7-470D-93B4-247AC9213D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFAB1F-E2B7-470D-93B4-247AC9213D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A416A9A-B7CD-44A0-B1F5-9271C41DC75D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1480,7 +1480,9 @@
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="12">
+        <v>912.25</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1756,7 +1758,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1728.25</v>
+        <v>2640.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4932,7 +4934,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5657,7 +5659,9 @@
         <v>45985</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13">
+        <v>83.25</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11"/>
       <c r="G31" s="1"/>
@@ -5930,7 +5934,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>2578.25</v>
+        <v>2661.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9111,8 +9115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9837,7 +9841,9 @@
         <v>45985</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13">
+        <v>781.5</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11"/>
       <c r="G31" s="1"/>
@@ -10110,7 +10116,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>8164.75</v>
+        <v>8946.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A416A9A-B7CD-44A0-B1F5-9271C41DC75D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239DBBD2-A286-441A-AAE9-B6D2E1025A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -753,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -9115,7 +9115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="13">
-        <v>781.5</v>
+        <v>901.5</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11"/>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>8946.25</v>
+        <v>9066.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239DBBD2-A286-441A-AAE9-B6D2E1025A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B5E00A-AE4B-4390-AFBC-A5EB35FF3AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1505,7 +1505,9 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="12">
+        <v>891</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1758,7 +1760,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2640.5</v>
+        <v>3531.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4934,7 +4936,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5685,7 +5687,9 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="12">
+        <v>94</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -5938,7 +5942,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2513.5</v>
+        <v>2607.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9116,7 +9120,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9866,7 +9870,9 @@
         <v>45986</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="15"/>
+      <c r="D32" s="15">
+        <v>769.75</v>
+      </c>
       <c r="E32" s="12"/>
       <c r="F32" s="11"/>
       <c r="G32" s="1"/>
@@ -10116,7 +10122,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>9066.25</v>
+        <v>9836</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B5E00A-AE4B-4390-AFBC-A5EB35FF3AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E623E4-F625-4C66-83D8-7A5505AF6C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1530,7 +1530,9 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="12">
+        <v>253.5</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1760,7 +1762,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>3531.5</v>
+        <v>3785</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4936,7 +4938,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5712,7 +5714,9 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="12">
+        <v>18</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -5942,7 +5946,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2607.5</v>
+        <v>2625.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9120,7 +9124,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9895,7 +9899,9 @@
         <v>45987</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="13">
+        <v>805.5</v>
+      </c>
       <c r="E33" s="12"/>
       <c r="F33" s="11"/>
       <c r="G33" s="1"/>
@@ -10122,7 +10128,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>9836</v>
+        <v>10641.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E623E4-F625-4C66-83D8-7A5505AF6C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DB6D6C-4C58-4377-A208-54A302F2085E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -9123,8 +9123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9899,10 +9899,10 @@
         <v>45987</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="13">
-        <v>805.5</v>
-      </c>
-      <c r="E33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="12">
+        <v>100.5</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -10128,11 +10128,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>10641.5</v>
+        <v>9836</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5410.5</v>
+        <v>5511</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DB6D6C-4C58-4377-A208-54A302F2085E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754BAEA5-1676-4602-ABA9-098EBA014940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -9124,7 +9124,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754BAEA5-1676-4602-ABA9-098EBA014940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4882ED-76F9-48BE-87CA-36C42CD9E67B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1555,7 +1555,9 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="12">
+        <v>145.5</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1762,7 +1764,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>3785</v>
+        <v>3930.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4938,7 +4940,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5738,7 +5740,9 @@
         <v>45988</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13">
+        <v>128</v>
+      </c>
       <c r="E34" s="12"/>
       <c r="F34" s="11"/>
       <c r="G34" s="1"/>
@@ -5942,7 +5946,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>2661.5</v>
+        <v>2789.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9123,8 +9127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9924,7 +9928,9 @@
         <v>45988</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="13">
+        <v>360.75</v>
+      </c>
       <c r="E34" s="12"/>
       <c r="F34" s="11"/>
       <c r="G34" s="1"/>
@@ -10128,7 +10134,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>9836</v>
+        <v>10196.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/SHORT OVER ALL ROUTES - NOVEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4882ED-76F9-48BE-87CA-36C42CD9E67B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6ABD26-ED6E-4F78-884C-33D14F8DE6E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER. SRS R1" sheetId="6" r:id="rId1"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1580,7 +1580,9 @@
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="12">
+        <v>205.5</v>
+      </c>
       <c r="F35" s="35"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1602,7 +1604,9 @@
         <v>45990</v>
       </c>
       <c r="C36" s="27"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="15">
+        <v>671</v>
+      </c>
       <c r="E36" s="12"/>
       <c r="F36" s="34"/>
       <c r="G36" s="1"/>
@@ -1646,9 +1650,7 @@
       <c r="A38" s="11">
         <v>29</v>
       </c>
-      <c r="B38" s="31">
-        <v>45991</v>
-      </c>
+      <c r="B38" s="31"/>
       <c r="C38" s="12"/>
       <c r="D38" s="15"/>
       <c r="E38" s="12"/>
@@ -1760,11 +1762,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>3731.25</v>
+        <v>4402.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>3930.5</v>
+        <v>4136</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4940,7 +4942,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5765,7 +5767,9 @@
         <v>45989</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="13">
+        <v>2323</v>
+      </c>
       <c r="E35" s="12"/>
       <c r="F35" s="35"/>
       <c r="G35" s="1"/>
@@ -5789,7 +5793,9 @@
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="12">
+        <v>2867.25</v>
+      </c>
       <c r="F36" s="34"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -5832,9 +5838,7 @@
       <c r="A38" s="11">
         <v>29</v>
       </c>
-      <c r="B38" s="31">
-        <v>45991</v>
-      </c>
+      <c r="B38" s="31"/>
       <c r="C38" s="12"/>
       <c r="D38" s="15"/>
       <c r="E38" s="12"/>
@@ -5946,11 +5950,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>2789.5</v>
+        <v>5112.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2625.5</v>
+        <v>5492.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9127,8 +9131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9954,7 +9958,9 @@
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="12">
+        <v>1573</v>
+      </c>
       <c r="F35" s="35"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -9976,7 +9982,9 @@
         <v>45990</v>
       </c>
       <c r="C36" s="27"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="15">
+        <v>1222.25</v>
+      </c>
       <c r="E36" s="12"/>
       <c r="F36" s="34"/>
       <c r="G36" s="1"/>
@@ -10020,9 +10028,7 @@
       <c r="A38" s="11">
         <v>29</v>
       </c>
-      <c r="B38" s="31">
-        <v>45991</v>
-      </c>
+      <c r="B38" s="31"/>
       <c r="C38" s="12"/>
       <c r="D38" s="15"/>
       <c r="E38" s="12"/>
@@ -10134,11 +10140,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>10196.75</v>
+        <v>11419</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5511</v>
+        <v>7084</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
